--- a/Data/all_places_coord.xlsx
+++ b/Data/all_places_coord.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C654C6-F8AF-4DE5-B2FE-11BE0E377C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6355C345-5BE3-471A-9A16-7CE567BF307A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1804,7 +1817,7 @@
     <t>https://www.geschichtewiki.wien.gv.at/Theresianische_Akademie_(Geb%C3%A4ude)</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>NEUE_NAMEN</t>
   </si>
 </sst>
 </file>
@@ -1885,6 +1898,24 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1913,24 +1944,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1945,16 +1958,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{223F766D-26C5-482F-AE2A-CB7515BF9425}" name="Table1" displayName="Table1" ref="A1:G336" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{223F766D-26C5-482F-AE2A-CB7515BF9425}" name="Table1" displayName="Table1" ref="A1:G336" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:G336" xr:uid="{223F766D-26C5-482F-AE2A-CB7515BF9425}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{953DCE71-7500-405D-925D-E560E51312C5}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{953DCE71-7500-405D-925D-E560E51312C5}" name="NEUE_NAMEN"/>
     <tableColumn id="2" xr3:uid="{B695D776-B82A-4524-A188-D55FDB8354CC}" name="ADRESSE"/>
     <tableColumn id="3" xr3:uid="{CA199D7C-4B73-423C-A7CD-24574E90A21A}" name="Sicherheit"/>
     <tableColumn id="4" xr3:uid="{C6BA8369-2C7A-4AA0-B797-23D801C3A5FB}" name="Longitude"/>
     <tableColumn id="5" xr3:uid="{2AF4A439-5600-48FA-ACD0-FB8632D1435F}" name="Latitude"/>
     <tableColumn id="6" xr3:uid="{E482A57D-2BD8-4A6C-A00C-98393A72C31B}" name="Quelle"/>
-    <tableColumn id="7" xr3:uid="{7511AFC2-941F-4F38-AD1C-3D6B0616C13C}" name="URL" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{7511AFC2-941F-4F38-AD1C-3D6B0616C13C}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2249,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="I184" sqref="I184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
